--- a/biology/Botanique/Haricot_tépari/Haricot_tépari.xlsx
+++ b/biology/Botanique/Haricot_tépari/Haricot_tépari.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Haricot_t%C3%A9pari</t>
+          <t>Haricot_tépari</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phaseolus acutifolius
 Le haricot tépari (Phaseolus acutifolius) est une plante herbacée de la famille des légumineuses (Fabaceae), originaire du sud de l'Amérique du Nord et cultivé depuis l'époque précolombienne par les populations amérindiennes.
-Le nom « tépari » serait emprunté à l'espagnol mexicain, lui-même emprunté au ópata, eudeve ou o'odham (tribus uto-aztèques du désert de Sonora et de l'Arizona) t'pawi « c'est un haricot ». Il porte aussi le nom de xmayum chez les Mayas et d'escomite au Mexique[Quoi ?][1].
+Le nom « tépari » serait emprunté à l'espagnol mexicain, lui-même emprunté au ópata, eudeve ou o'odham (tribus uto-aztèques du désert de Sonora et de l'Arizona) t'pawi « c'est un haricot ». Il porte aussi le nom de xmayum chez les Mayas et d'escomite au Mexique[Quoi ?].
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Haricot_t%C3%A9pari</t>
+          <t>Haricot_tépari</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,16 +527,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Description
-Taxonomie
-Sous-espèces[2] :
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Sous-espèces :
 Phaseolus acutifolius var. acutifolius A.Gray
-Phaseolus acutifolius var. latifolius F.L.Freeman
-Distribution
-Le haricot tépari est spontané dans le sud de l'Amérique du Nord, aux États-Unis dans les États du Texas, du Nouveau-Mexique et de l'Arizona, et au Mexique dans les États de Basse-Californie, Chihuahua, Durango, Guerrero, Jalisco, Michoacán, Oaxaca, Sinaloa et Sonora[3].
-L'espèce a été introduite pour la culture dans d'autres régions d'Amérique centrale ainsi qu'en Afrique, en Asie (Inde, Kazakhstan,  Kirghizstan) Australie[4]. Il est également cultivé dans certaines régions d'Europe orientale (Russie et Ukraine[5]).
-Le haricot tépari est une espèce adaptée aux régions arides et supportant aussi bien la sécheresse que la chaleur. Il s'accommode d'une pluviométrie annuelle de 500 mm. C'est une plante qui est plus tolérante à la salinité que le haricot commun.
-</t>
+Phaseolus acutifolius var. latifolius F.L.Freeman</t>
         </is>
       </c>
     </row>
@@ -534,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Haricot_t%C3%A9pari</t>
+          <t>Haricot_tépari</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,10 +560,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Aspects botaniques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le haricot tépari est spontané dans le sud de l'Amérique du Nord, aux États-Unis dans les États du Texas, du Nouveau-Mexique et de l'Arizona, et au Mexique dans les États de Basse-Californie, Chihuahua, Durango, Guerrero, Jalisco, Michoacán, Oaxaca, Sinaloa et Sonora.
+L'espèce a été introduite pour la culture dans d'autres régions d'Amérique centrale ainsi qu'en Afrique, en Asie (Inde, Kazakhstan,  Kirghizstan) Australie. Il est également cultivé dans certaines régions d'Europe orientale (Russie et Ukraine).
+Le haricot tépari est une espèce adaptée aux régions arides et supportant aussi bien la sécheresse que la chaleur. Il s'accommode d'une pluviométrie annuelle de 500 mm. C'est une plante qui est plus tolérante à la salinité que le haricot commun.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Haricot_tépari</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haricot_t%C3%A9pari</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante plus résistante à la sècheresse que le haricot commun (Phaseolus vulgaris) et son enracinement est profond. Le haricot tépari est cultivée dans des conditions semi-désertiques de l'Arizona au Mexique et au Costa Rica. Ses besoins en eau sont limités, la plante étant capable de croître dans des zones recevant moins de 400 mm de pluie. Elle a été récemment introduite en culture sur le continent africain.
 Les variétés cultivées sont à cycles courts avec récolte des grains 60 à 80 jours après le semis.
@@ -561,31 +613,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Haricot_t%C3%A9pari</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Haricot_tépari</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Haricot_t%C3%A9pari</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Black, à grains noirs proche des variétés historiques,
 Blue Speckled, beige bleuté originaire des hauts plateaux mexicains,
@@ -593,35 +647,37 @@
 Paiute White et paiute Yellow, variétés du sud de l'Utah près de la rivière Santa Clara,
 Pinacrate, variété aux grains bronze de la région très sèche de la Sierra el Pinacrate,
 San Pablo Balleza, variété originaire de la province mexicaine de Chihuahua,
-Yome, à grains beiges, cultivé par le peuple Yome[1].</t>
+Yome, à grains beiges, cultivé par le peuple Yome.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Haricot_t%C3%A9pari</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Haricot_tépari</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Haricot_t%C3%A9pari</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils[Qui ?] se consomment en grain ou en farine et le reste de la plante est donné au bétail.
 Les haricots téparis se préparent comme les autres haricots secs, avec un trempage préalable à la cuisson.
